--- a/risultati.xlsx
+++ b/risultati.xlsx
@@ -26724,7 +26724,7 @@
     <col width="14.4" customWidth="1" min="1" max="1"/>
     <col width="18" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="379.2" customWidth="1" min="4" max="4"/>
+    <col width="22.8" customWidth="1" min="4" max="4"/>
     <col width="30" customWidth="1" min="5" max="5"/>
     <col width="24" customWidth="1" min="6" max="6"/>
     <col width="27.6" customWidth="1" min="7" max="7"/>
@@ -26817,19 +26817,17 @@
           <t>Gauss-Seidel</t>
         </is>
       </c>
-      <c r="D2" s="5" t="inlineStr">
-        <is>
-          <t>[167, 139, 117, 91, 81, 71, 55, 39, 27, 21, 15, 7, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+      <c r="D2" s="5" t="n">
+        <v>99</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>0.6840622760009865</v>
+        <v>0.3366510660000586</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>0.2098724307710828</v>
+        <v>0.2098724307787271</v>
       </c>
       <c r="G2" s="5" t="n">
-        <v>7.808814944309514e-07</v>
+        <v>2.523262304560382e-06</v>
       </c>
       <c r="H2" s="5">
         <f>HYPERLINK("plots_Breast_Cancer/Gauss-Seidel_plot1.png", "Vedi grafico")</f>
@@ -26867,7 +26865,7 @@
         <v>200</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>0.02196885100056534</v>
+        <v>0.03505866000000424</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>0.2098917607985141</v>
@@ -26911,7 +26909,7 @@
         <v>200</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.1157935369992629</v>
+        <v>0.1134849520000216</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>0.2098724307503274</v>
@@ -26952,16 +26950,16 @@
         </is>
       </c>
       <c r="D5" s="5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4.167726057999971</v>
+        <v>2.130079633000037</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.714338566527327</v>
+        <v>0.2687229845081583</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.737735030471233</v>
+        <v>0.1338328804922802</v>
       </c>
       <c r="H5" s="5">
         <f>HYPERLINK("plots_Breast_Cancer/Jacobi_plot1.png", "Vedi grafico")</f>
@@ -26995,19 +26993,17 @@
           <t>Gauss-Seidel</t>
         </is>
       </c>
-      <c r="D6" s="5" t="inlineStr">
-        <is>
-          <t>[119, 89, 89, 83, 73, 61, 45, 29, 19, 15, 13, 9, 5, 3, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+      <c r="D6" s="5" t="n">
+        <v>99</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3939309970010072</v>
+        <v>0.2231642350000129</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5323402185636816</v>
+        <v>0.5323402185640094</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>7.160943876243609e-07</v>
+        <v>2.311161225934589e-06</v>
       </c>
       <c r="H6" s="5">
         <f>HYPERLINK("plots_Diabetes/Gauss-Seidel_plot1.png", "Vedi grafico")</f>
@@ -27045,7 +27041,7 @@
         <v>200</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.01782679700045264</v>
+        <v>0.017755674</v>
       </c>
       <c r="F7" s="5" t="n">
         <v>0.5323442245630712</v>
@@ -27089,7 +27085,7 @@
         <v>200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.03911376299947733</v>
+        <v>0.05547058399997695</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>0.5323402185455174</v>
@@ -27130,16 +27126,16 @@
         </is>
       </c>
       <c r="D9" s="5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.809917177000898</v>
+        <v>1.285038597000039</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.281417874329918</v>
+        <v>0.5620603340360358</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>1.290758126087773</v>
+        <v>0.1240713985841276</v>
       </c>
       <c r="H9" s="5">
         <f>HYPERLINK("plots_Diabetes/Jacobi_plot1.png", "Vedi grafico")</f>
@@ -27173,19 +27169,17 @@
           <t>Gauss-Seidel</t>
         </is>
       </c>
-      <c r="D10" s="5" t="inlineStr">
-        <is>
-          <t>[151, 121, 87, 91, 79, 65, 55, 47, 37, 27, 21, 15, 9, 5, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+      <c r="D10" s="5" t="n">
+        <v>99</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.10303304899935</v>
+        <v>0.3563213639999958</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3443474773765873</v>
+        <v>0.3443474773783152</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>8.735459853732502e-07</v>
+        <v>2.446240590039423e-06</v>
       </c>
       <c r="H10" s="5">
         <f>HYPERLINK("plots_Digits/Gauss-Seidel_plot1.png", "Vedi grafico")</f>
@@ -27223,7 +27217,7 @@
         <v>200</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0354561799995281</v>
+        <v>0.04432639899994228</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>0.3443891061813378</v>
@@ -27267,7 +27261,7 @@
         <v>200</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07171169300090696</v>
+        <v>0.08667545399998744</v>
       </c>
       <c r="F12" s="5" t="n">
         <v>0.3443474773610055</v>
@@ -27308,16 +27302,16 @@
         </is>
       </c>
       <c r="D13" s="5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8.077485403999162</v>
+        <v>3.596936725999967</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6.504961599998335</v>
+        <v>0.4053176240448574</v>
       </c>
       <c r="G13" s="5" t="n">
-        <v>1.701892124746997</v>
+        <v>0.1710737352498499</v>
       </c>
       <c r="H13" s="5">
         <f>HYPERLINK("plots_Digits/Jacobi_plot1.png", "Vedi grafico")</f>
@@ -27351,13 +27345,11 @@
           <t>Gauss-Seidel</t>
         </is>
       </c>
-      <c r="D14" s="5" t="inlineStr">
-        <is>
-          <t>[159, 1]</t>
-        </is>
+      <c r="D14" s="5" t="n">
+        <v>7</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01292711599853646</v>
+        <v>0.01658581399999548</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0.2770481480513239</v>
@@ -27401,7 +27393,7 @@
         <v>200</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01370689399846015</v>
+        <v>0.01440988600006676</v>
       </c>
       <c r="F15" s="5" t="n">
         <v>0.2770611454960519</v>
@@ -27445,7 +27437,7 @@
         <v>200</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.08949705300074129</v>
+        <v>0.09019881300002908</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.2770481480473711</v>
@@ -27486,16 +27478,16 @@
         </is>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04837985899939667</v>
+        <v>1.293101281000077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2770481480513239</v>
+        <v>0.2770542921915968</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>9.106265978521454e-07</v>
+        <v>0.001400583567003402</v>
       </c>
       <c r="H17" s="5">
         <f>HYPERLINK("plots_Iris/Jacobi_plot1.png", "Vedi grafico")</f>
@@ -27529,19 +27521,17 @@
           <t>Gauss-Seidel</t>
         </is>
       </c>
-      <c r="D18" s="5" t="inlineStr">
-        <is>
-          <t>[151, 123, 103, 85, 63, 49, 39, 29, 17, 11, 5, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+      <c r="D18" s="5" t="n">
+        <v>99</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3663388109998778</v>
+        <v>0.1467174000000568</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2868725599953235</v>
+        <v>0.2868725599955528</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>6.774557494835859e-07</v>
+        <v>2.467500321195467e-06</v>
       </c>
       <c r="H18" s="5">
         <f>HYPERLINK("plots_Wine/Gauss-Seidel_plot1.png", "Vedi grafico")</f>
@@ -27579,7 +27569,7 @@
         <v>200</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.0142995839996729</v>
+        <v>0.01630862799993338</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.2869134782050468</v>
@@ -27623,7 +27613,7 @@
         <v>200</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.07516209000095841</v>
+        <v>0.0733905639999648</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>0.2868725599758444</v>
@@ -27664,16 +27654,16 @@
         </is>
       </c>
       <c r="D21" s="5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2.561806892001186</v>
+        <v>1.302103508000073</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.727284449723802</v>
+        <v>0.336840572814257</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8159799603143421</v>
+        <v>0.1209926394994546</v>
       </c>
       <c r="H21" s="5">
         <f>HYPERLINK("plots_Wine/Jacobi_plot1.png", "Vedi grafico")</f>
@@ -27707,19 +27697,17 @@
           <t>Gauss-Seidel</t>
         </is>
       </c>
-      <c r="D22" s="5" t="inlineStr">
-        <is>
-          <t>[185, 91, 31, 5, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+      <c r="D22" s="5" t="n">
+        <v>99</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13.84016383600101</v>
+        <v>14.193563821</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.6809618106660188</v>
+        <v>0.6809618106771901</v>
       </c>
       <c r="G22" s="5" t="n">
-        <v>9.003962095699161e-07</v>
+        <v>2.632020255789491e-06</v>
       </c>
       <c r="H22" s="5">
         <f>HYPERLINK("plots_Fetch/Gauss-Seidel_plot1.png", "Vedi grafico")</f>
@@ -27757,7 +27745,7 @@
         <v>200</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.495551025000168</v>
+        <v>2.787562483999977</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>0.6811480714757195</v>
@@ -27801,7 +27789,7 @@
         <v>200</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.918268501000057</v>
+        <v>7.80553299099995</v>
       </c>
       <c r="F24" s="5" t="n">
         <v>0.6809618106437449</v>
@@ -27842,16 +27830,16 @@
         </is>
       </c>
       <c r="D25" s="5" t="n">
-        <v>7</v>
+        <v>99</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2.401609839998855</v>
+        <v>24.23852119399999</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.6809618106562854</v>
+        <v>0.6820596673035374</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>1.832184175132421e-06</v>
+        <v>0.01508488902969572</v>
       </c>
       <c r="H25" s="5">
         <f>HYPERLINK("plots_Fetch/Jacobi_plot1.png", "Vedi grafico")</f>
@@ -27885,19 +27873,17 @@
           <t>Gauss-Seidel</t>
         </is>
       </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>[183, 101, 57, 55, 51, 43, 35, 27, 19, 13, 7, 5, 3, 3, 1, 3, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1, 1]</t>
-        </is>
+      <c r="D26" s="5" t="n">
+        <v>99</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6638145410015568</v>
+        <v>0.3839224629999762</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5225852951537688</v>
+        <v>0.5225852951535028</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>7.36747745799989e-07</v>
+        <v>2.367385247026872e-06</v>
       </c>
       <c r="H26" s="5">
         <f>HYPERLINK("plots_Adult/Gauss-Seidel_plot1.png", "Vedi grafico")</f>
@@ -27935,7 +27921,7 @@
         <v>200</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.02433473600103753</v>
+        <v>0.03653080000003683</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>0.5227331563311011</v>
@@ -27979,7 +27965,7 @@
         <v>200</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.104957256000489</v>
+        <v>0.1170026469999357</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>0.5225852951363807</v>
@@ -28020,16 +28006,16 @@
         </is>
       </c>
       <c r="D29" s="5" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.366149886998755</v>
+        <v>2.400938796999981</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.235441305597294</v>
+        <v>0.5696402688967982</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.776603362429217</v>
+        <v>0.1718528965044156</v>
       </c>
       <c r="H29" s="5">
         <f>HYPERLINK("plots_Adult/Jacobi_plot1.png", "Vedi grafico")</f>
